--- a/google_maps_cost_calculator.xlsx
+++ b/google_maps_cost_calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielgasser/Sites/SafePath/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9B5E95-BF15-304B-86DF-CAA4FC0B8E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC985A39-57AF-AE42-A8AC-381829E7A0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -518,11 +518,11 @@
         <v>12</v>
       </c>
       <c r="B7" s="4">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="C7">
         <f>B7*30</f>
-        <v>90</v>
+        <v>30000</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -713,15 +713,15 @@
       </c>
       <c r="B27">
         <f>C7*B13</f>
-        <v>9000</v>
+        <v>3000000</v>
       </c>
       <c r="C27">
         <f>MAX(0,B27-B19)</f>
-        <v>0</v>
+        <v>2990000</v>
       </c>
       <c r="D27" s="6">
         <f>IF(C27=0,0,IF(C27&lt;=90000,C27/1000*C19,IF(C27&lt;=400000,(90000/1000*C19)+((C27-90000)/1000*D19),(90000/1000*C19)+(400000/1000*D19)+((C27-400000)/1000*E19))))</f>
-        <v>0</v>
+        <v>12410</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
       </c>
       <c r="D31" s="7">
         <f>SUM(D26:D29)</f>
-        <v>200</v>
+        <v>12610</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -776,7 +776,7 @@
       </c>
       <c r="D32" s="8">
         <f>IF(B13=0,0,D31/B13)</f>
-        <v>2</v>
+        <v>126.1</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -801,11 +801,11 @@
       </c>
       <c r="B37" s="6">
         <f>IF(MAX(0,(C7*30*A37)-B19)=0,0,IF(MAX(0,(C7*30*A37)-B19)&lt;=90000,MAX(0,(C7*30*A37)-B19)/1000*C19,IF(MAX(0,(C7*30*A37)-B19)&lt;=400000,(90000/1000*C19)+((MAX(0,(C7*30*A37)-B19)-90000)/1000*D19),(90000/1000*C19)+(400000/1000*D19)+((MAX(0,(C7*30*A37)-B19)-400000)/1000*E19))))+IF(MAX(0,(C8*30*A37)-B20)=0,0,IF(MAX(0,(C8*30*A37)-B20)&lt;=90000,MAX(0,(C8*30*A37)-B20)/1000*C20,IF(MAX(0,(C8*30*A37)-B20)&lt;=400000,(90000/1000*C20)+((MAX(0,(C8*30*A37)-B20)-90000)/1000*D20),(90000/1000*C20)+(400000/1000*D20)+((MAX(0,(C8*30*A37)-B20)-400000)/1000*E20))))+IF(MAX(0,(C9*30*A37)-B21)=0,0,IF(MAX(0,(C9*30*A37)-B21)&lt;=90000,MAX(0,(C9*30*A37)-B21)/1000*C21,IF(MAX(0,(C9*30*A37)-B21)&lt;=400000,(90000/1000*C21)+((MAX(0,(C9*30*A37)-B21)-90000)/1000*D21),(90000/1000*C21)+(400000/1000*D21)+((MAX(0,(C9*30*A37)-B21)-400000)/1000*E21))))</f>
-        <v>8170</v>
+        <v>367450</v>
       </c>
       <c r="C37" s="6">
         <f t="shared" ref="C37:C42" si="0">IF(A37=0,0,B37/A37)</f>
-        <v>81.7</v>
+        <v>3674.5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -814,11 +814,11 @@
       </c>
       <c r="B38" s="6">
         <f>IF(MAX(0,(C7*30*A38)-B19)=0,0,IF(MAX(0,(C7*30*A38)-B19)&lt;=90000,MAX(0,(C7*30*A38)-B19)/1000*C19,IF(MAX(0,(C7*30*A38)-B19)&lt;=400000,(90000/1000*C19)+((MAX(0,(C7*30*A38)-B19)-90000)/1000*D19),(90000/1000*C19)+(400000/1000*D19)+((MAX(0,(C7*30*A38)-B19)-400000)/1000*E19))))+IF(MAX(0,(C8*30*A38)-B20)=0,0,IF(MAX(0,(C8*30*A38)-B20)&lt;=90000,MAX(0,(C8*30*A38)-B20)/1000*C20,IF(MAX(0,(C8*30*A38)-B20)&lt;=400000,(90000/1000*C20)+((MAX(0,(C8*30*A38)-B20)-90000)/1000*D20),(90000/1000*C20)+(400000/1000*D20)+((MAX(0,(C8*30*A38)-B20)-400000)/1000*E20))))+IF(MAX(0,(C9*30*A38)-B21)=0,0,IF(MAX(0,(C9*30*A38)-B21)&lt;=90000,MAX(0,(C9*30*A38)-B21)/1000*C21,IF(MAX(0,(C9*30*A38)-B21)&lt;=400000,(90000/1000*C21)+((MAX(0,(C9*30*A38)-B21)-90000)/1000*D21),(90000/1000*C21)+(400000/1000*D21)+((MAX(0,(C9*30*A38)-B21)-400000)/1000*E21))))</f>
-        <v>34450</v>
+        <v>1829050</v>
       </c>
       <c r="C38" s="6">
         <f t="shared" si="0"/>
-        <v>68.900000000000006</v>
+        <v>3658.1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -827,11 +827,11 @@
       </c>
       <c r="B39" s="6">
         <f>IF(MAX(0,(C7*30*A39)-B19)=0,0,IF(MAX(0,(C7*30*A39)-B19)&lt;=90000,MAX(0,(C7*30*A39)-B19)/1000*C19,IF(MAX(0,(C7*30*A39)-B19)&lt;=400000,(90000/1000*C19)+((MAX(0,(C7*30*A39)-B19)-90000)/1000*D19),(90000/1000*C19)+(400000/1000*D19)+((MAX(0,(C7*30*A39)-B19)-400000)/1000*E19))))+IF(MAX(0,(C8*30*A39)-B20)=0,0,IF(MAX(0,(C8*30*A39)-B20)&lt;=90000,MAX(0,(C8*30*A39)-B20)/1000*C20,IF(MAX(0,(C8*30*A39)-B20)&lt;=400000,(90000/1000*C20)+((MAX(0,(C8*30*A39)-B20)-90000)/1000*D20),(90000/1000*C20)+(400000/1000*D20)+((MAX(0,(C8*30*A39)-B20)-400000)/1000*E20))))+IF(MAX(0,(C9*30*A39)-B21)=0,0,IF(MAX(0,(C9*30*A39)-B21)&lt;=90000,MAX(0,(C9*30*A39)-B21)/1000*C21,IF(MAX(0,(C9*30*A39)-B21)&lt;=400000,(90000/1000*C21)+((MAX(0,(C9*30*A39)-B21)-90000)/1000*D21),(90000/1000*C21)+(400000/1000*D21)+((MAX(0,(C9*30*A39)-B21)-400000)/1000*E21))))</f>
-        <v>66850</v>
+        <v>3656050</v>
       </c>
       <c r="C39" s="6">
         <f t="shared" si="0"/>
-        <v>66.849999999999994</v>
+        <v>3656.05</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -840,11 +840,11 @@
       </c>
       <c r="B40" s="6">
         <f>IF(MAX(0,(C7*30*A40)-B19)=0,0,IF(MAX(0,(C7*30*A40)-B19)&lt;=90000,MAX(0,(C7*30*A40)-B19)/1000*C19,IF(MAX(0,(C7*30*A40)-B19)&lt;=400000,(90000/1000*C19)+((MAX(0,(C7*30*A40)-B19)-90000)/1000*D19),(90000/1000*C19)+(400000/1000*D19)+((MAX(0,(C7*30*A40)-B19)-400000)/1000*E19))))+IF(MAX(0,(C8*30*A40)-B20)=0,0,IF(MAX(0,(C8*30*A40)-B20)&lt;=90000,MAX(0,(C8*30*A40)-B20)/1000*C20,IF(MAX(0,(C8*30*A40)-B20)&lt;=400000,(90000/1000*C20)+((MAX(0,(C8*30*A40)-B20)-90000)/1000*D20),(90000/1000*C20)+(400000/1000*D20)+((MAX(0,(C8*30*A40)-B20)-400000)/1000*E20))))+IF(MAX(0,(C9*30*A40)-B21)=0,0,IF(MAX(0,(C9*30*A40)-B21)&lt;=90000,MAX(0,(C9*30*A40)-B21)/1000*C21,IF(MAX(0,(C9*30*A40)-B21)&lt;=400000,(90000/1000*C21)+((MAX(0,(C9*30*A40)-B21)-90000)/1000*D21),(90000/1000*C21)+(400000/1000*D21)+((MAX(0,(C9*30*A40)-B21)-400000)/1000*E21))))</f>
-        <v>131650</v>
+        <v>7310050</v>
       </c>
       <c r="C40" s="6">
         <f t="shared" si="0"/>
-        <v>65.825000000000003</v>
+        <v>3655.0250000000001</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -853,11 +853,11 @@
       </c>
       <c r="B41" s="6">
         <f>IF(MAX(0,(C7*30*A41)-B19)=0,0,IF(MAX(0,(C7*30*A41)-B19)&lt;=90000,MAX(0,(C7*30*A41)-B19)/1000*C19,IF(MAX(0,(C7*30*A41)-B19)&lt;=400000,(90000/1000*C19)+((MAX(0,(C7*30*A41)-B19)-90000)/1000*D19),(90000/1000*C19)+(400000/1000*D19)+((MAX(0,(C7*30*A41)-B19)-400000)/1000*E19))))+IF(MAX(0,(C8*30*A41)-B20)=0,0,IF(MAX(0,(C8*30*A41)-B20)&lt;=90000,MAX(0,(C8*30*A41)-B20)/1000*C20,IF(MAX(0,(C8*30*A41)-B20)&lt;=400000,(90000/1000*C20)+((MAX(0,(C8*30*A41)-B20)-90000)/1000*D20),(90000/1000*C20)+(400000/1000*D20)+((MAX(0,(C8*30*A41)-B20)-400000)/1000*E20))))+IF(MAX(0,(C9*30*A41)-B21)=0,0,IF(MAX(0,(C9*30*A41)-B21)&lt;=90000,MAX(0,(C9*30*A41)-B21)/1000*C21,IF(MAX(0,(C9*30*A41)-B21)&lt;=400000,(90000/1000*C21)+((MAX(0,(C9*30*A41)-B21)-90000)/1000*D21),(90000/1000*C21)+(400000/1000*D21)+((MAX(0,(C9*30*A41)-B21)-400000)/1000*E21))))</f>
-        <v>326050</v>
+        <v>18272050</v>
       </c>
       <c r="C41" s="6">
         <f t="shared" si="0"/>
-        <v>65.209999999999994</v>
+        <v>3654.41</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -866,11 +866,11 @@
       </c>
       <c r="B42" s="6">
         <f>IF(MAX(0,(C7*30*A42)-B19)=0,0,IF(MAX(0,(C7*30*A42)-B19)&lt;=90000,MAX(0,(C7*30*A42)-B19)/1000*C19,IF(MAX(0,(C7*30*A42)-B19)&lt;=400000,(90000/1000*C19)+((MAX(0,(C7*30*A42)-B19)-90000)/1000*D19),(90000/1000*C19)+(400000/1000*D19)+((MAX(0,(C7*30*A42)-B19)-400000)/1000*E19))))+IF(MAX(0,(C8*30*A42)-B20)=0,0,IF(MAX(0,(C8*30*A42)-B20)&lt;=90000,MAX(0,(C8*30*A42)-B20)/1000*C20,IF(MAX(0,(C8*30*A42)-B20)&lt;=400000,(90000/1000*C20)+((MAX(0,(C8*30*A42)-B20)-90000)/1000*D20),(90000/1000*C20)+(400000/1000*D20)+((MAX(0,(C8*30*A42)-B20)-400000)/1000*E20))))+IF(MAX(0,(C9*30*A42)-B21)=0,0,IF(MAX(0,(C9*30*A42)-B21)&lt;=90000,MAX(0,(C9*30*A42)-B21)/1000*C21,IF(MAX(0,(C9*30*A42)-B21)&lt;=400000,(90000/1000*C21)+((MAX(0,(C9*30*A42)-B21)-90000)/1000*D21),(90000/1000*C21)+(400000/1000*D21)+((MAX(0,(C9*30*A42)-B21)-400000)/1000*E21))))</f>
-        <v>650050</v>
+        <v>36542050</v>
       </c>
       <c r="C42" s="6">
         <f t="shared" si="0"/>
-        <v>65.004999999999995</v>
+        <v>3654.2049999999999</v>
       </c>
     </row>
   </sheetData>
